--- a/Jogos_do_Dia/2023-10-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,10 +691,10 @@
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
         <v>2.88</v>
@@ -718,7 +718,7 @@
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
@@ -830,13 +830,13 @@
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="K3" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="L3" t="n">
-        <v>2.61</v>
+        <v>2.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.85</v>
@@ -926,10 +926,10 @@
         <v>1.39</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -960,61 +960,61 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="Z4" t="n">
         <v>3</v>
@@ -1032,43 +1032,43 @@
         <v>3.35</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="K5" t="n">
-        <v>3.28</v>
+        <v>3.18</v>
       </c>
       <c r="L5" t="n">
-        <v>3.03</v>
+        <v>3.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1204,10 +1204,10 @@
         <v>1.36</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,122 +1364,122 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Atlético PR</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.91</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.67</v>
+        <v>2.46</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,128 +1503,128 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atlético PR</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>1.65</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>3.61</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="L9" t="n">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="M9" t="n">
         <v>1.39</v>
@@ -1691,7 +1691,7 @@
         <v>3.28</v>
       </c>
       <c r="S9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T9" t="n">
         <v>1.82</v>
@@ -1760,10 +1760,10 @@
         <v>1.4</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="T10" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1939,16 +1939,16 @@
         <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L11" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1969,10 +1969,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2005,13 +2005,13 @@
         <v>2.89</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.35</v>
+        <v>2.17</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2316,10 +2316,10 @@
         <v>1.37</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="L14" t="n">
-        <v>2.64</v>
+        <v>3.79</v>
       </c>
       <c r="M14" t="n">
         <v>1.29</v>
@@ -2386,10 +2386,10 @@
         <v>4.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2459,6 +2459,423 @@
       </c>
       <c r="AQ14" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>27</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>27</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Brazil Serie A</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>27</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Goiás</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-10-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>1.73</v>
@@ -830,13 +830,13 @@
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
         <v>1.85</v>
@@ -969,13 +969,13 @@
         <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -999,7 +999,7 @@
         <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
         <v>1.83</v>
@@ -1108,13 +1108,13 @@
         <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="K5" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.01</v>
+        <v>2.83</v>
       </c>
       <c r="M5" t="n">
         <v>1.44</v>
@@ -1135,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="K6" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>2.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1386,37 +1386,37 @@
         <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1425,13 +1425,13 @@
         <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z7" t="n">
         <v>2.46</v>
@@ -1458,34 +1458,34 @@
         <v>2.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="8">
@@ -1664,13 +1664,13 @@
         <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3.61</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="M9" t="n">
         <v>1.39</v>
@@ -1691,10 +1691,10 @@
         <v>3.28</v>
       </c>
       <c r="S9" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.79</v>
@@ -1797,58 +1797,58 @@
         <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L10" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S10" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="T10" t="n">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1875,34 +1875,34 @@
         <v>2.43</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AL10" t="n">
         <v>1.91</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11">
@@ -1939,10 +1939,10 @@
         <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="K11" t="n">
         <v>3.1</v>
@@ -1951,28 +1951,28 @@
         <v>2.31</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -1981,13 +1981,13 @@
         <v>1.95</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="Z11" t="n">
         <v>1</v>
@@ -2005,43 +2005,43 @@
         <v>2.89</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AL11" t="n">
         <v>2.1</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="12">
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="K12" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2359,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="n">
-        <v>3.61</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>3.79</v>
+        <v>4.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.29</v>
@@ -2386,10 +2386,10 @@
         <v>4.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2498,37 +2498,37 @@
         <v>4.33</v>
       </c>
       <c r="J15" t="n">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
         <v>1.91</v>
@@ -2537,13 +2537,13 @@
         <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Z15" t="n">
         <v>1.33</v>
@@ -2570,34 +2570,34 @@
         <v>2.55</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="16">
@@ -2634,7 +2634,7 @@
         <v>2.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>2.31</v>
@@ -2646,43 +2646,43 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z16" t="n">
         <v>1.31</v>
@@ -2709,34 +2709,34 @@
         <v>2.4</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL16" t="n">
         <v>2</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="17">
@@ -2767,61 +2767,61 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z17" t="n">
         <v>1.15</v>
@@ -2839,43 +2839,43 @@
         <v>3.07</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AF17" t="n">
         <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL17" t="n">
         <v>2</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
